--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_6_4.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_6_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1266 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_5</t>
+          <t>model_6_4_15</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9374839655897681</v>
+        <v>0.9465742854699788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7642684060690625</v>
+        <v>0.6943993158887977</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3116426618477044</v>
+        <v>0.4078604759587534</v>
       </c>
       <c r="E2" t="n">
-        <v>0.966879395114867</v>
+        <v>0.748737959195061</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7925161595180452</v>
+        <v>0.5900032181661313</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4180450099610908</v>
+        <v>0.3572579990650473</v>
       </c>
       <c r="H2" t="n">
-        <v>1.576338254060362</v>
+        <v>2.043553181813372</v>
       </c>
       <c r="I2" t="n">
-        <v>2.049511990128543</v>
+        <v>1.528658989243727</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3215508248608773</v>
+        <v>0.6555484176832929</v>
       </c>
       <c r="K2" t="n">
-        <v>1.18553140749471</v>
+        <v>1.092103891116864</v>
       </c>
       <c r="L2" t="n">
-        <v>1.058768875211234</v>
+        <v>1.861074894272658</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6465640029889468</v>
+        <v>0.5977106315476138</v>
       </c>
       <c r="N2" t="n">
-        <v>1.036594751849892</v>
+        <v>1.031273588993183</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6740895711681848</v>
+        <v>0.623156410564174</v>
       </c>
       <c r="P2" t="n">
-        <v>131.7443323458433</v>
+        <v>132.0585941435158</v>
       </c>
       <c r="Q2" t="n">
-        <v>210.9712609622763</v>
+        <v>211.2855227599488</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_4</t>
+          <t>model_6_4_16</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9366798021251973</v>
+        <v>0.9459426889519407</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7642021485272622</v>
+        <v>0.6943915668887584</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3312412408842709</v>
+        <v>0.4024289543928461</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9724140431694827</v>
+        <v>0.7404479770179719</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7945383830279051</v>
+        <v>0.5833113129334393</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4234224547515076</v>
+        <v>0.361481487889403</v>
       </c>
       <c r="H3" t="n">
-        <v>1.576781318547469</v>
+        <v>2.043604999412315</v>
       </c>
       <c r="I3" t="n">
-        <v>2.080135820759625</v>
+        <v>1.542680928212315</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2678177890830438</v>
+        <v>0.6771771710015564</v>
       </c>
       <c r="K3" t="n">
-        <v>1.173976727003235</v>
+        <v>1.109929045038608</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9961394880779129</v>
+        <v>1.890879864543611</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6507091936890915</v>
+        <v>0.6012333057053667</v>
       </c>
       <c r="N3" t="n">
-        <v>1.037065481682811</v>
+        <v>1.031643304028132</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6784112312181625</v>
+        <v>0.6268290522537633</v>
       </c>
       <c r="P3" t="n">
-        <v>131.7187697746388</v>
+        <v>132.035088895705</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.9456983910719</v>
+        <v>211.262017512138</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_6</t>
+          <t>model_6_4_14</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9378822626529969</v>
+        <v>0.9472458310714628</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7640533271850904</v>
+        <v>0.694374772602242</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2962104002480255</v>
+        <v>0.4138648515911979</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9613778204287706</v>
+        <v>0.7579347692804067</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7899523705987361</v>
+        <v>0.5974170077100651</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4153815956652905</v>
+        <v>0.3527673705357406</v>
       </c>
       <c r="H4" t="n">
-        <v>1.577776487547831</v>
+        <v>2.043717302883581</v>
       </c>
       <c r="I4" t="n">
-        <v>2.025398253892801</v>
+        <v>1.51315817834921</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3749627684072965</v>
+        <v>0.6315537295884742</v>
       </c>
       <c r="K4" t="n">
-        <v>1.200180511150049</v>
+        <v>1.072355861942986</v>
       </c>
       <c r="L4" t="n">
-        <v>1.119263326683603</v>
+        <v>1.827534956536478</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6445010439598143</v>
+        <v>0.5939422282812872</v>
       </c>
       <c r="N4" t="n">
-        <v>1.036361602349465</v>
+        <v>1.0308804891289</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6719387877022683</v>
+        <v>0.6192275785691297</v>
       </c>
       <c r="P4" t="n">
-        <v>131.7571153472248</v>
+        <v>132.0838928925406</v>
       </c>
       <c r="Q4" t="n">
-        <v>210.9840439636579</v>
+        <v>211.3108215089736</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_3</t>
+          <t>model_6_4_17</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9353490328097578</v>
+        <v>0.9453525643596299</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7637656890253357</v>
+        <v>0.6943606505849462</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3559477901769441</v>
+        <v>0.3975182955607525</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9778732697554129</v>
+        <v>0.7329818049168699</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7957980993497302</v>
+        <v>0.5772752622331676</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4323213152914808</v>
+        <v>0.3654276537554587</v>
       </c>
       <c r="H5" t="n">
-        <v>1.579699925246562</v>
+        <v>2.043811736878264</v>
       </c>
       <c r="I5" t="n">
-        <v>2.11874112880801</v>
+        <v>1.555358215341465</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2148169813412673</v>
+        <v>0.6966565849685401</v>
       </c>
       <c r="K5" t="n">
-        <v>1.166778897714032</v>
+        <v>1.126007206499437</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9326766940630615</v>
+        <v>1.917398515212004</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6575114563956135</v>
+        <v>0.604506123836193</v>
       </c>
       <c r="N5" t="n">
-        <v>1.037844468599166</v>
+        <v>1.031988742813875</v>
       </c>
       <c r="O5" t="n">
-        <v>0.685503080330726</v>
+        <v>0.6302412010280862</v>
       </c>
       <c r="P5" t="n">
-        <v>131.6771723636247</v>
+        <v>132.0133739142522</v>
       </c>
       <c r="Q5" t="n">
-        <v>210.9041009800578</v>
+        <v>211.2403025306853</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_7</t>
+          <t>model_6_4_18</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9379743365394368</v>
+        <v>0.9448041428869296</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7636311673407303</v>
+        <v>0.69431356978504</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.284124328292801</v>
+        <v>0.3930812412300071</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9559958191004368</v>
+        <v>0.7262613205842361</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7870326285733046</v>
+        <v>0.5718337012143531</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4147658971627048</v>
+        <v>0.3690949506686542</v>
       </c>
       <c r="H6" t="n">
-        <v>1.580599472370934</v>
+        <v>2.044126566404024</v>
       </c>
       <c r="I6" t="n">
-        <v>2.006513118401024</v>
+        <v>1.56681285181323</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4272138360592917</v>
+        <v>0.7141904824733513</v>
       </c>
       <c r="K6" t="n">
-        <v>1.216863477230158</v>
+        <v>1.140501832373855</v>
       </c>
       <c r="L6" t="n">
-        <v>1.17670140901233</v>
+        <v>1.941014128975589</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6440232116645369</v>
+        <v>0.6075318515671867</v>
       </c>
       <c r="N6" t="n">
-        <v>1.03630770544033</v>
+        <v>1.032309770017407</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6714406130969317</v>
+        <v>0.6333957402527083</v>
       </c>
       <c r="P6" t="n">
-        <v>131.7600820422798</v>
+        <v>131.9934026983144</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.9870106587129</v>
+        <v>211.2203313147474</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_8</t>
+          <t>model_6_4_13</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.937840902672087</v>
+        <v>0.9479539159509343</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7630624233489252</v>
+        <v>0.694305980101918</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2746898865952339</v>
+        <v>0.4204944081368392</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9507984934606494</v>
+        <v>0.7681279757463798</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7839071940702337</v>
+        <v>0.6056214518608738</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4156581700480797</v>
+        <v>0.348032403686284</v>
       </c>
       <c r="H7" t="n">
-        <v>1.584402666062961</v>
+        <v>2.044177318650007</v>
       </c>
       <c r="I7" t="n">
-        <v>1.991771297368691</v>
+        <v>1.496043409284262</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4776719829542591</v>
+        <v>0.6049594205218082</v>
       </c>
       <c r="K7" t="n">
-        <v>1.234721739140345</v>
+        <v>1.050501774841444</v>
       </c>
       <c r="L7" t="n">
-        <v>1.23051721640746</v>
+        <v>1.78973033046883</v>
       </c>
       <c r="M7" t="n">
-        <v>0.644715572983994</v>
+        <v>0.5899427122071126</v>
       </c>
       <c r="N7" t="n">
-        <v>1.036385813069998</v>
+        <v>1.030466000418965</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6721624496711436</v>
+        <v>0.6150577948155378</v>
       </c>
       <c r="P7" t="n">
-        <v>131.755784126244</v>
+        <v>132.1109193790029</v>
       </c>
       <c r="Q7" t="n">
-        <v>210.9827127426771</v>
+        <v>211.337847995436</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_2</t>
+          <t>model_6_4_19</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9333491911467122</v>
+        <v>0.9442965121947122</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7628557169378434</v>
+        <v>0.6942557202159958</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3867594450303611</v>
+        <v>0.3890721864701084</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9831243525288713</v>
+        <v>0.7202133511224678</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7960461693778196</v>
+        <v>0.5669291224297873</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4456942657006904</v>
+        <v>0.3724894794449362</v>
       </c>
       <c r="H8" t="n">
-        <v>1.58578491278566</v>
+        <v>2.044513406738595</v>
       </c>
       <c r="I8" t="n">
-        <v>2.166885991654133</v>
+        <v>1.577162570668786</v>
       </c>
       <c r="J8" t="n">
-        <v>0.163836934235418</v>
+        <v>0.7299697732812971</v>
       </c>
       <c r="K8" t="n">
-        <v>1.165361462944775</v>
+        <v>1.153566104612665</v>
       </c>
       <c r="L8" t="n">
-        <v>0.87007069783123</v>
+        <v>1.962077967975625</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6676033745426175</v>
+        <v>0.6103191619512992</v>
       </c>
       <c r="N8" t="n">
-        <v>1.039015107621437</v>
+        <v>1.0326069196909</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6960246323263986</v>
+        <v>0.6363017122104004</v>
       </c>
       <c r="P8" t="n">
-        <v>131.6162441298798</v>
+        <v>131.9750929693244</v>
       </c>
       <c r="Q8" t="n">
-        <v>210.8431727463128</v>
+        <v>211.2020215857574</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_9</t>
+          <t>model_6_4_20</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9375460630569444</v>
+        <v>0.9438284631174056</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7623954893360453</v>
+        <v>0.6941912890055021</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2673446174668943</v>
+        <v>0.3854530338032078</v>
       </c>
       <c r="E9" t="n">
-        <v>0.945832683009038</v>
+        <v>0.714771772478183</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7806928189119666</v>
+        <v>0.5625103080753642</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4176297639121498</v>
+        <v>0.3756193257800535</v>
       </c>
       <c r="H9" t="n">
-        <v>1.588862456878037</v>
+        <v>2.044944258539845</v>
       </c>
       <c r="I9" t="n">
-        <v>1.980293920498342</v>
+        <v>1.586505723816114</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5258824686128456</v>
+        <v>0.7441669765617137</v>
       </c>
       <c r="K9" t="n">
-        <v>1.253088194555594</v>
+        <v>1.165336451513934</v>
       </c>
       <c r="L9" t="n">
-        <v>1.280428843149374</v>
+        <v>1.980872066513799</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6462428056946938</v>
+        <v>0.6128779044638937</v>
       </c>
       <c r="N9" t="n">
-        <v>1.036558402113008</v>
+        <v>1.032880899638592</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6737546998401455</v>
+        <v>0.6389693856890831</v>
       </c>
       <c r="P9" t="n">
-        <v>131.7463199424352</v>
+        <v>131.9583581597663</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.9732485588682</v>
+        <v>211.1852867761993</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_10</t>
+          <t>model_6_4_12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9371400047608855</v>
+        <v>0.9486926089201974</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7616681831128759</v>
+        <v>0.6941776886516142</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.261639565933433</v>
+        <v>0.427805630925</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9411299492201192</v>
+        <v>0.7794090112299272</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7774776330589401</v>
+        <v>0.6146892145080389</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4203450776076223</v>
+        <v>0.343092760399453</v>
       </c>
       <c r="H10" t="n">
-        <v>1.593725956941308</v>
+        <v>2.045035204168917</v>
       </c>
       <c r="I10" t="n">
-        <v>1.971379471569349</v>
+        <v>1.47716886032457</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5715388790006509</v>
+        <v>0.5755269406399396</v>
       </c>
       <c r="K10" t="n">
-        <v>1.271459282158568</v>
+        <v>1.02634807581386</v>
       </c>
       <c r="L10" t="n">
-        <v>1.326350093283654</v>
+        <v>1.747074440637593</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6483402483323261</v>
+        <v>0.5857412059941258</v>
       </c>
       <c r="N10" t="n">
-        <v>1.036796094774116</v>
+        <v>1.030033594778421</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6759414349531666</v>
+        <v>0.6106774217847474</v>
       </c>
       <c r="P10" t="n">
-        <v>131.7333585833855</v>
+        <v>132.1395088597914</v>
       </c>
       <c r="Q10" t="n">
-        <v>210.9602871998185</v>
+        <v>211.3664374762245</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_1</t>
+          <t>model_6_4_21</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9305158249832544</v>
+        <v>0.9433982081669907</v>
       </c>
       <c r="C11" t="n">
-        <v>0.761355507764484</v>
+        <v>0.6941232590312061</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4246360430117277</v>
+        <v>0.3821869018927552</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9880089845065868</v>
+        <v>0.7098763132279666</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7950169289525946</v>
+        <v>0.5585301967231346</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4646409982821847</v>
+        <v>0.3784964426146197</v>
       </c>
       <c r="H11" t="n">
-        <v>1.595816818435742</v>
+        <v>2.045399175291212</v>
       </c>
       <c r="I11" t="n">
-        <v>2.226070206963762</v>
+        <v>1.594937523590083</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1164145683993015</v>
+        <v>0.7569393418383445</v>
       </c>
       <c r="K11" t="n">
-        <v>1.171242387681531</v>
+        <v>1.175938230082551</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8102787372333964</v>
+        <v>1.997663313852482</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6816458011916341</v>
+        <v>0.6152206454717036</v>
       </c>
       <c r="N11" t="n">
-        <v>1.040673663424436</v>
+        <v>1.033132756194932</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7106648741496943</v>
+        <v>0.6414118620317381</v>
       </c>
       <c r="P11" t="n">
-        <v>131.5329804365626</v>
+        <v>131.9430972095784</v>
       </c>
       <c r="Q11" t="n">
-        <v>210.7599090529957</v>
+        <v>211.1700258260114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_11</t>
+          <t>model_6_4_22</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9366612546683891</v>
+        <v>0.9430037875759857</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7609096651831551</v>
+        <v>0.6940539687609861</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2572205671307557</v>
+        <v>0.3792397922648628</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9367084777904645</v>
+        <v>0.7054740459711459</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7743255860719722</v>
+        <v>0.5549459484244814</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4235464816805874</v>
+        <v>0.3811339349228101</v>
       </c>
       <c r="H12" t="n">
-        <v>1.598798169830005</v>
+        <v>2.045862519647224</v>
       </c>
       <c r="I12" t="n">
-        <v>1.964474548991051</v>
+        <v>1.602545739968239</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6144646585941994</v>
+        <v>0.7684249579114393</v>
       </c>
       <c r="K12" t="n">
-        <v>1.289469603792625</v>
+        <v>1.18548555261562</v>
       </c>
       <c r="L12" t="n">
-        <v>1.368357401664222</v>
+        <v>2.012673937564372</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6508044880611898</v>
+        <v>0.6173604578548986</v>
       </c>
       <c r="N12" t="n">
-        <v>1.037076338730699</v>
+        <v>1.033363636540886</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6785105824689676</v>
+        <v>0.6436427706581079</v>
       </c>
       <c r="P12" t="n">
-        <v>131.7181840297567</v>
+        <v>131.929208860798</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.9451126461897</v>
+        <v>211.156137477231</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_12</t>
+          <t>model_6_4_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9361394081240055</v>
+        <v>0.9426427896884013</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7601420167116</v>
+        <v>0.6939851364183014</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.253806051826863</v>
+        <v>0.3765793292830606</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9325768954098801</v>
+        <v>0.7015137594449472</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7712824507584457</v>
+        <v>0.5517173668196642</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4270360719257627</v>
+        <v>0.3835479294593294</v>
       </c>
       <c r="H13" t="n">
-        <v>1.60393143869399</v>
+        <v>2.046322801839701</v>
       </c>
       <c r="I13" t="n">
-        <v>1.959139185740554</v>
+        <v>1.609413953434089</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6545760553233682</v>
+        <v>0.7787574361381744</v>
       </c>
       <c r="K13" t="n">
-        <v>1.306857620531961</v>
+        <v>1.194085489711804</v>
       </c>
       <c r="L13" t="n">
-        <v>1.406616437096148</v>
+        <v>2.026105149306312</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6534799705620385</v>
+        <v>0.619312465125101</v>
       </c>
       <c r="N13" t="n">
-        <v>1.037381809878631</v>
+        <v>1.033574952377521</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6812999657988896</v>
+        <v>0.645677878919015</v>
       </c>
       <c r="P13" t="n">
-        <v>131.7017735834873</v>
+        <v>131.9165813739012</v>
       </c>
       <c r="Q13" t="n">
-        <v>210.9287021999203</v>
+        <v>211.1435099903343</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_13</t>
+          <t>model_6_4_11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9355964451849011</v>
+        <v>0.9494524815298564</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7593816371990805</v>
+        <v>0.6939701496414685</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2511844370357772</v>
+        <v>0.435856251633584</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9287356551638309</v>
+        <v>0.791868951262507</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7683775613079533</v>
+        <v>0.6246926325016882</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4306668675996683</v>
+        <v>0.3380114887597716</v>
       </c>
       <c r="H14" t="n">
-        <v>1.609016099995434</v>
+        <v>2.046423018485391</v>
       </c>
       <c r="I14" t="n">
-        <v>1.955042772057075</v>
+        <v>1.456385492190016</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6918686704156825</v>
+        <v>0.5430186717959107</v>
       </c>
       <c r="K14" t="n">
-        <v>1.323455721236379</v>
+        <v>0.9997020819929634</v>
       </c>
       <c r="L14" t="n">
-        <v>1.441343413752711</v>
+        <v>1.698866294750513</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6562521372153147</v>
+        <v>0.5813875546997644</v>
       </c>
       <c r="N14" t="n">
-        <v>1.037699641842985</v>
+        <v>1.029588791299596</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6841901493257719</v>
+        <v>0.6061384265414844</v>
       </c>
       <c r="P14" t="n">
-        <v>131.6848408334902</v>
+        <v>132.1693507873265</v>
       </c>
       <c r="Q14" t="n">
-        <v>210.9117694499233</v>
+        <v>211.3962794037595</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_0</t>
+          <t>model_6_4_24</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9266623288491067</v>
+        <v>0.9423133112340663</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7591368441228808</v>
+        <v>0.6939179018149608</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4703571686739529</v>
+        <v>0.3741810308565161</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9923377524692268</v>
+        <v>0.6979530004570311</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7924428463705584</v>
+        <v>0.5488111445843944</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4904093446749488</v>
+        <v>0.3857511534005764</v>
       </c>
       <c r="H15" t="n">
-        <v>1.610653032423149</v>
+        <v>2.046772399941827</v>
       </c>
       <c r="I15" t="n">
-        <v>2.297511917402565</v>
+        <v>1.615605366605778</v>
       </c>
       <c r="J15" t="n">
-        <v>0.07438879882638487</v>
+        <v>0.7880475378694266</v>
       </c>
       <c r="K15" t="n">
-        <v>1.185950307774973</v>
+        <v>1.201826761722262</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7553055646142325</v>
+        <v>2.038123647490802</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7002923280137723</v>
+        <v>0.6210886840062185</v>
       </c>
       <c r="N15" t="n">
-        <v>1.042929368478572</v>
+        <v>1.033767817814205</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7301052222222826</v>
+        <v>0.6475297151151815</v>
       </c>
       <c r="P15" t="n">
-        <v>131.4250296786635</v>
+        <v>131.9051255954448</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.6519582950966</v>
+        <v>211.1320542118778</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_14</t>
+          <t>model_6_4_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9350488661138876</v>
+        <v>0.9502191888788151</v>
       </c>
       <c r="C16" t="n">
-        <v>0.758640683653667</v>
+        <v>0.6936578448412081</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2491794337806414</v>
+        <v>0.4447040303908849</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9251795121309087</v>
+        <v>0.8055906452184917</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7656305665365223</v>
+        <v>0.6357002541183525</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4343285313689059</v>
+        <v>0.3328845131869223</v>
       </c>
       <c r="H16" t="n">
-        <v>1.613970859765391</v>
+        <v>2.048511402122764</v>
       </c>
       <c r="I16" t="n">
-        <v>1.951909846961563</v>
+        <v>1.433544192153362</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7263934241007425</v>
+        <v>0.5072184580749556</v>
       </c>
       <c r="K16" t="n">
-        <v>1.339151635531152</v>
+        <v>0.9703812020930516</v>
       </c>
       <c r="L16" t="n">
-        <v>1.472791649583901</v>
+        <v>1.644304266431813</v>
       </c>
       <c r="M16" t="n">
-        <v>0.659036062267389</v>
+        <v>0.576961448614136</v>
       </c>
       <c r="N16" t="n">
-        <v>1.038020175933334</v>
+        <v>1.029139986997767</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6870925918308323</v>
+        <v>0.6015238919564881</v>
       </c>
       <c r="P16" t="n">
-        <v>131.6679080930583</v>
+        <v>132.1999193127994</v>
       </c>
       <c r="Q16" t="n">
-        <v>210.8948367094914</v>
+        <v>211.4268479292325</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_15</t>
+          <t>model_6_4_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9345085315300851</v>
+        <v>0.9509714382749449</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7579275171090916</v>
+        <v>0.6932079106253897</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2476591368798353</v>
+        <v>0.454397561572201</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9218992029614405</v>
+        <v>0.8206420663302751</v>
       </c>
       <c r="F17" t="n">
-        <v>0.763051611486339</v>
+        <v>0.6477687555309517</v>
       </c>
       <c r="G17" t="n">
-        <v>0.437941751218805</v>
+        <v>0.3278542180112118</v>
       </c>
       <c r="H17" t="n">
-        <v>1.618739807732797</v>
+        <v>2.051520114295697</v>
       </c>
       <c r="I17" t="n">
-        <v>1.949534301534908</v>
+        <v>1.408519509665183</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7582402494500791</v>
+        <v>0.467948955757355</v>
       </c>
       <c r="K17" t="n">
-        <v>1.353887396173559</v>
+        <v>0.9382344684194455</v>
       </c>
       <c r="L17" t="n">
-        <v>1.50121582207554</v>
+        <v>1.582474612980299</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6617716760475663</v>
+        <v>0.5725855551891017</v>
       </c>
       <c r="N17" t="n">
-        <v>1.038336469348243</v>
+        <v>1.028699645887837</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6899446663531329</v>
+        <v>0.5969617076890019</v>
       </c>
       <c r="P17" t="n">
-        <v>131.6513387310686</v>
+        <v>132.2303724533626</v>
       </c>
       <c r="Q17" t="n">
-        <v>210.8782673475017</v>
+        <v>211.4573010697956</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_16</t>
+          <t>model_6_4_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9339839957752193</v>
+        <v>0.9516787179075643</v>
       </c>
       <c r="C18" t="n">
-        <v>0.757247814458314</v>
+        <v>0.6925781093079657</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.246516739615096</v>
+        <v>0.4649800742047223</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9188825471843926</v>
+        <v>0.8370554772184873</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7606450370787559</v>
+        <v>0.6609353484359802</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4414493242268576</v>
+        <v>0.3231246358511626</v>
       </c>
       <c r="H18" t="n">
-        <v>1.623284982488289</v>
+        <v>2.05573159860528</v>
       </c>
       <c r="I18" t="n">
-        <v>1.947749244552791</v>
+        <v>1.381199845282567</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7875274003579564</v>
+        <v>0.425125990927159</v>
       </c>
       <c r="K18" t="n">
-        <v>1.367638199792942</v>
+        <v>0.903162760587944</v>
       </c>
       <c r="L18" t="n">
-        <v>1.526878892863461</v>
+        <v>1.512457144952841</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6644165291643922</v>
+        <v>0.5684405297400623</v>
       </c>
       <c r="N18" t="n">
-        <v>1.038643514668164</v>
+        <v>1.028285628541914</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6927021163427428</v>
+        <v>0.5926402199252113</v>
       </c>
       <c r="P18" t="n">
-        <v>131.6353840928782</v>
+        <v>132.2594343213595</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.8623127093112</v>
+        <v>211.4863629377925</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_17</t>
+          <t>model_6_4_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9334808835805471</v>
+        <v>0.9522976506650053</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7566051984362627</v>
+        <v>0.6917134853732199</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.245673375965191</v>
+        <v>0.4764764481068433</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9161155346372567</v>
+        <v>0.8548083397577519</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7584095967726341</v>
+        <v>0.6752005624575959</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4448136377892489</v>
+        <v>0.318985829652232</v>
       </c>
       <c r="H19" t="n">
-        <v>1.627582158786721</v>
+        <v>2.061513342838153</v>
       </c>
       <c r="I19" t="n">
-        <v>1.946431443628198</v>
+        <v>1.35152096961954</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8143908942469615</v>
+        <v>0.3788083660695359</v>
       </c>
       <c r="K19" t="n">
-        <v>1.38041116893758</v>
+        <v>0.8651646678445379</v>
       </c>
       <c r="L19" t="n">
-        <v>1.550020882835536</v>
+        <v>1.433012386204917</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6669435041960068</v>
+        <v>0.5647883051659551</v>
       </c>
       <c r="N19" t="n">
-        <v>1.038938019367485</v>
+        <v>1.027923326439997</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6953366699330127</v>
+        <v>0.5888325125898374</v>
       </c>
       <c r="P19" t="n">
-        <v>131.6201997520367</v>
+        <v>132.2852171966736</v>
       </c>
       <c r="Q19" t="n">
-        <v>210.8471283684698</v>
+        <v>211.5121458131067</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_18</t>
+          <t>model_6_4_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.933003219896329</v>
+        <v>0.9527674475177781</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7560016686640968</v>
+        <v>0.6905431360283351</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2450585622507437</v>
+        <v>0.4888874286831488</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9135832259703141</v>
+        <v>0.8737882846616325</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7563423217676534</v>
+        <v>0.6905099931205412</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4480077770450545</v>
+        <v>0.3158442959345246</v>
       </c>
       <c r="H20" t="n">
-        <v>1.631617965152194</v>
+        <v>2.069339474296361</v>
       </c>
       <c r="I20" t="n">
-        <v>1.945470764232729</v>
+        <v>1.319480958350207</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8389757695377892</v>
+        <v>0.3292892552257526</v>
       </c>
       <c r="K20" t="n">
-        <v>1.392223266885259</v>
+        <v>0.8243851067879802</v>
       </c>
       <c r="L20" t="n">
-        <v>1.570881690620535</v>
+        <v>1.342796340162145</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6693338307937635</v>
+        <v>0.5620002632868819</v>
       </c>
       <c r="N20" t="n">
-        <v>1.039217627377759</v>
+        <v>1.027648323404228</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6978287576826941</v>
+        <v>0.5859257779959296</v>
       </c>
       <c r="P20" t="n">
-        <v>131.6058893744845</v>
+        <v>132.3050118424262</v>
       </c>
       <c r="Q20" t="n">
-        <v>210.8328179909176</v>
+        <v>211.5319404588593</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_19</t>
+          <t>model_6_4_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9325531528897046</v>
+        <v>0.9530036495122072</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7554378942994102</v>
+        <v>0.688974658867583</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2446249908472575</v>
+        <v>0.5021773297091794</v>
       </c>
       <c r="E21" t="n">
-        <v>0.911270656007048</v>
+        <v>0.8937394280170826</v>
       </c>
       <c r="F21" t="n">
-        <v>0.754436945379112</v>
+        <v>0.7067209719130148</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4510173771907193</v>
+        <v>0.3142648121101668</v>
       </c>
       <c r="H21" t="n">
-        <v>1.635387926924795</v>
+        <v>2.079827888292483</v>
       </c>
       <c r="I21" t="n">
-        <v>1.944793285666448</v>
+        <v>1.285171938525032</v>
       </c>
       <c r="J21" t="n">
-        <v>0.861427315390155</v>
+        <v>0.2772362653839986</v>
       </c>
       <c r="K21" t="n">
-        <v>1.403110300528301</v>
+        <v>0.7812041019545155</v>
       </c>
       <c r="L21" t="n">
-        <v>1.589670769159733</v>
+        <v>1.240385588695347</v>
       </c>
       <c r="M21" t="n">
-        <v>0.671578273316461</v>
+        <v>0.5605932679850578</v>
       </c>
       <c r="N21" t="n">
-        <v>1.039481081235295</v>
+        <v>1.027510058822123</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7001687507702195</v>
+        <v>0.584458883991225</v>
       </c>
       <c r="P21" t="n">
-        <v>131.5924988197307</v>
+        <v>132.3150385956498</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.8194274361638</v>
+        <v>211.5419672120829</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_20</t>
+          <t>model_6_4_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9321317844813642</v>
+        <v>0.9528907123579613</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7549137411345943</v>
+        <v>0.686887778173554</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2443288000808967</v>
+        <v>0.5162654114531775</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9091616364033979</v>
+        <v>0.9142055970303733</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7526857120609549</v>
+        <v>0.7235710263943478</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4538350696775151</v>
+        <v>0.3150200233806369</v>
       </c>
       <c r="H22" t="n">
-        <v>1.638892941551423</v>
+        <v>2.093782869102657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.944330471712099</v>
+        <v>1.248802346689337</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8819026960649167</v>
+        <v>0.2238395618082396</v>
       </c>
       <c r="K22" t="n">
-        <v>1.413116583888508</v>
+        <v>0.7363207982800696</v>
       </c>
       <c r="L22" t="n">
-        <v>1.606593490300014</v>
+        <v>1.124252617708072</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6736728209431602</v>
+        <v>0.5612664459778769</v>
       </c>
       <c r="N22" t="n">
-        <v>1.039727735913348</v>
+        <v>1.027576168375828</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7023524676256984</v>
+        <v>0.585160720564869</v>
       </c>
       <c r="P22" t="n">
-        <v>131.5800428591851</v>
+        <v>132.310238151778</v>
       </c>
       <c r="Q22" t="n">
-        <v>210.8069714756182</v>
+        <v>211.5371667682111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_21</t>
+          <t>model_6_4_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9317394511797454</v>
+        <v>0.9522723292773814</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7544283048803146</v>
+        <v>0.6841255805009764</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2441375962277397</v>
+        <v>0.5310079803419563</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9072416003366024</v>
+        <v>0.9344471530542997</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7510806757847766</v>
+        <v>0.7406281733918084</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4564586042719689</v>
+        <v>0.3191551538878666</v>
       </c>
       <c r="H23" t="n">
-        <v>1.642139056019019</v>
+        <v>2.112253697657934</v>
       </c>
       <c r="I23" t="n">
-        <v>1.944031705439087</v>
+        <v>1.210743140131784</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9005433333111846</v>
+        <v>0.1710288786647641</v>
       </c>
       <c r="K23" t="n">
-        <v>1.422287519375136</v>
+        <v>0.6908858645619138</v>
       </c>
       <c r="L23" t="n">
-        <v>1.62182698585135</v>
+        <v>0.9928258416190668</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6756172024689491</v>
+        <v>0.5649381858998971</v>
       </c>
       <c r="N23" t="n">
-        <v>1.039957394431368</v>
+        <v>1.027938148715679</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7043796254984648</v>
+        <v>0.5889887740569191</v>
       </c>
       <c r="P23" t="n">
-        <v>131.5685145274672</v>
+        <v>132.2841558372313</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.7954431439003</v>
+        <v>211.5110844536643</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_22</t>
+          <t>model_6_4_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.931375572455969</v>
+        <v>0.9509417226775156</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7539803058619843</v>
+        <v>0.6804835793945839</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.244031496024484</v>
+        <v>0.5461988106889484</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9054957901742139</v>
+        <v>0.9533630335130702</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7496120178145808</v>
+        <v>0.7572533162113029</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4588918629733689</v>
+        <v>0.3280529263480492</v>
       </c>
       <c r="H24" t="n">
-        <v>1.64513482751744</v>
+        <v>2.136607775826254</v>
       </c>
       <c r="I24" t="n">
-        <v>1.943865918182349</v>
+        <v>1.171526708157234</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9174925013506394</v>
+        <v>0.1216769134251762</v>
       </c>
       <c r="K24" t="n">
-        <v>1.430679209766494</v>
+        <v>0.6466016555924381</v>
       </c>
       <c r="L24" t="n">
-        <v>1.635541392281171</v>
+        <v>0.8444914381760527</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6774155762701127</v>
+        <v>0.572759047373369</v>
       </c>
       <c r="N24" t="n">
-        <v>1.04017039661114</v>
+        <v>1.028717040383893</v>
       </c>
       <c r="O24" t="n">
-        <v>0.706254559795491</v>
+        <v>0.5971425857947319</v>
       </c>
       <c r="P24" t="n">
-        <v>131.557881378657</v>
+        <v>132.229160645596</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.7848099950901</v>
+        <v>211.4560892620291</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_6_4_1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9486301110366873</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.675696437458378</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5615539794487115</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9694152238604975</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7725555736165477</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3435106840342616</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.168619415996424</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.131886022469225</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.07979638125686389</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.6058412018630445</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.6776277608563136</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.5860978451028989</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.030070178905354</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.6110492437587256</v>
+      </c>
+      <c r="P25" t="n">
+        <v>132.1370741287116</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>211.3640027451447</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_6_4_0</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9449970805956955</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.6694223638366662</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5767145640585611</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9805875743936261</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.785373774594962</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3678047753217403</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.210574175194264</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.092747672460313</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.0506474628992303</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.5716975017514747</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.4905261106521253</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.6064691050018461</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.032196830870812</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.6322877503658925</v>
+      </c>
+      <c r="P26" t="n">
+        <v>132.0004059668444</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>211.2273345832774</v>
       </c>
     </row>
   </sheetData>
